--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
@@ -79,13 +79,13 @@
     <t>support</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safe</t>
   </si>
   <si>
     <t>love</t>
@@ -949,25 +949,25 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.6926406926406926</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L10">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="M10">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="N10">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O10">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>71</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -975,25 +975,25 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.6888888888888889</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L11">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="N11">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O11">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1001,25 +1001,25 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.6808510638297872</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="L12">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="M12">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="N12">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>45</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1053,25 +1053,25 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.5902140672782875</v>
+        <v>0.5676470588235294</v>
       </c>
       <c r="L14">
         <v>193</v>
       </c>
       <c r="M14">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="N14">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:17">
